--- a/src/main/resources/data/SmartRecruitData.xlsx
+++ b/src/main/resources/data/SmartRecruitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18795" windowHeight="5220"/>
+    <workbookView windowWidth="19815" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Requisition-TestData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>ProjectName</t>
   </si>
@@ -44,6 +44,9 @@
     <t>SubBand</t>
   </si>
   <si>
+    <t>PSA</t>
+  </si>
+  <si>
     <t>SecondaryPSA</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
   </si>
   <si>
     <t>E2.1</t>
+  </si>
+  <si>
+    <t>Noida</t>
   </si>
   <si>
     <t>ENOI</t>
@@ -169,9 +175,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -204,35 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -242,68 +219,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -311,15 +226,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,6 +256,88 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -348,43 +354,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,139 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,72 +551,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -631,6 +572,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -642,146 +648,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1124,20 +1130,20 @@
     <col min="5" max="5" width="34.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="21.1428571428571" customWidth="1"/>
-    <col min="9" max="10" width="14.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="13.1428571428571" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="31" customWidth="1"/>
-    <col min="15" max="15" width="21.7142857142857" customWidth="1"/>
-    <col min="17" max="17" width="12.7142857142857" customWidth="1"/>
-    <col min="18" max="18" width="31" customWidth="1"/>
-    <col min="19" max="19" width="21.7142857142857" customWidth="1"/>
-    <col min="20" max="20" width="14.1428571428571" customWidth="1"/>
+    <col min="8" max="9" width="21.1428571428571" customWidth="1"/>
+    <col min="10" max="11" width="14.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="13.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="31" customWidth="1"/>
+    <col min="16" max="16" width="21.7142857142857" customWidth="1"/>
+    <col min="18" max="18" width="12.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="31" customWidth="1"/>
+    <col min="20" max="20" width="21.7142857142857" customWidth="1"/>
+    <col min="21" max="21" width="14.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,67 +1204,73 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1281,12 +1293,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1314,18 +1326,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>40170924</v>
@@ -1356,12 +1368,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1386,12 +1398,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/SmartRecruitData.xlsx
+++ b/src/main/resources/data/SmartRecruitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7830"/>
+    <workbookView windowWidth="19815" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requisition-TestData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+  <si>
+    <t>Entityname</t>
+  </si>
   <si>
     <t>ProjectName</t>
   </si>
@@ -83,31 +86,31 @@
     <t>StatusRemarks</t>
   </si>
   <si>
-    <t>BNP Paribas Chennai - Staff Aug(C/092091)</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Requirement analysis</t>
-  </si>
-  <si>
-    <t>analyst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Infrastructure-Technical] - Business </t>
+    <t>TECH/CSW</t>
+  </si>
+  <si>
+    <t>HCLT - BPR - Smart Recruit (Z/070006)</t>
+  </si>
+  <si>
+    <t>Javascript MVC</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t>Admin lead</t>
+  </si>
+  <si>
+    <t>ipt MVC</t>
   </si>
   <si>
     <t>Full time FTE</t>
   </si>
   <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E2.1</t>
-  </si>
-  <si>
-    <t>Noida</t>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E3.1</t>
   </si>
   <si>
     <t>ENOI</t>
@@ -134,10 +137,10 @@
     <t>Non Billable</t>
   </si>
   <si>
-    <t>HARDIK MUKESH SHAH(40203957)</t>
-  </si>
-  <si>
-    <t>Abdul Khazi (90003171)</t>
+    <t>KEDARNATH BHARADWAJ (40104187)</t>
+  </si>
+  <si>
+    <t>Saravanan Rangamannar (40103492)</t>
   </si>
   <si>
     <t>Approved</t>
@@ -175,12 +178,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +198,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -203,8 +212,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,24 +304,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,13 +318,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -272,68 +342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,187 +363,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,30 +554,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,6 +568,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,8 +625,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,155 +657,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1116,34 +1125,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="39.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="34.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="9" width="21.1428571428571" customWidth="1"/>
-    <col min="10" max="11" width="14.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="13.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="31" customWidth="1"/>
-    <col min="16" max="16" width="21.7142857142857" customWidth="1"/>
-    <col min="18" max="18" width="12.7142857142857" customWidth="1"/>
-    <col min="19" max="19" width="31" customWidth="1"/>
-    <col min="20" max="20" width="21.7142857142857" customWidth="1"/>
-    <col min="21" max="21" width="14.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
+    <col min="2" max="3" width="39.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="34.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="10" width="21.1428571428571" customWidth="1"/>
+    <col min="11" max="12" width="14.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="13.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="31" customWidth="1"/>
+    <col min="17" max="17" width="21.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="12.7142857142857" customWidth="1"/>
+    <col min="20" max="20" width="37" customWidth="1"/>
+    <col min="21" max="21" width="35.7142857142857" customWidth="1"/>
+    <col min="22" max="22" width="14.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1207,46 +1217,49 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L2">
+      <c r="K2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2">
         <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
       </c>
       <c r="N2" t="s">
         <v>33</v>
@@ -1271,6 +1284,9 @@
       </c>
       <c r="U2" t="s">
         <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1293,12 +1309,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1312,8 +1328,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1326,21 +1342,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2">
-        <v>40170924</v>
+        <v>40164402</v>
       </c>
       <c r="C2">
         <v>123</v>
@@ -1368,12 +1384,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1398,12 +1414,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/SmartRecruitData.xlsx
+++ b/src/main/resources/data/SmartRecruitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7830" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Requisition-TestData" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://staging.myhcl.com/SR_New/</t>
+    <t>https://qa1.myhcl.com/SmartRecruit_CBT/</t>
   </si>
 </sst>
 </file>
@@ -179,9 +179,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -212,66 +212,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -294,6 +234,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -304,6 +266,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -318,6 +288,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -343,6 +321,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,187 +363,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,6 +554,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,8 +614,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,207 +646,157 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1328,7 +1328,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1356,7 +1356,7 @@
         <v>46</v>
       </c>
       <c r="B2">
-        <v>40164402</v>
+        <v>40170924</v>
       </c>
       <c r="C2">
         <v>123</v>
@@ -1404,12 +1404,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="34.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="42.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1424,7 +1424,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://staging.myhcl.com/SR_New/"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://qa1.myhcl.com/SmartRecruit_CBT/" tooltip="https://qa1.myhcl.com/SmartRecruit_CBT/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/data/SmartRecruitData.xlsx
+++ b/src/main/resources/data/SmartRecruitData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Entityname</t>
   </si>
@@ -92,16 +92,13 @@
     <t>HCLT - BPR - Smart Recruit (Z/070006)</t>
   </si>
   <si>
-    <t>Javascript MVC</t>
+    <t>Javascript</t>
   </si>
   <si>
     <t>javascript</t>
   </si>
   <si>
     <t>Admin lead</t>
-  </si>
-  <si>
-    <t>ipt MVC</t>
   </si>
   <si>
     <t>Full time FTE</t>
@@ -213,7 +210,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,22 +247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,9 +271,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,66 +344,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -363,19 +360,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,163 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,26 +554,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,35 +610,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +627,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,128 +672,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,7 +1125,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1238,55 +1235,55 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1309,12 +1306,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1342,18 +1339,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>40170924</v>
@@ -1384,12 +1381,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1414,12 +1411,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/SmartRecruitData.xlsx
+++ b/src/main/resources/data/SmartRecruitData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Entityname</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Admin lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MVC</t>
   </si>
   <si>
     <t>Full time FTE</t>
@@ -223,9 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,8 +248,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,82 +341,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -360,37 +363,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,55 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,79 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,17 +557,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,21 +571,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,26 +586,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,6 +607,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -654,7 +657,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,128 +675,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -803,6 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,7 +1129,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1234,56 +1238,56 @@
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1306,12 +1310,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1339,18 +1343,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>40170924</v>
@@ -1381,12 +1385,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1411,12 +1415,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/SmartRecruitData.xlsx
+++ b/src/main/resources/data/SmartRecruitData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Entityname</t>
   </si>
@@ -95,13 +95,10 @@
     <t>Javascript</t>
   </si>
   <si>
-    <t>javascript</t>
+    <t xml:space="preserve"> MVC</t>
   </si>
   <si>
     <t>Admin lead</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MVC</t>
   </si>
   <si>
     <t>Full time FTE</t>
@@ -213,21 +210,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,25 +238,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,59 +308,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,6 +330,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -363,96 +360,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -465,7 +510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,36 +534,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -514,36 +541,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,15 +551,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,26 +595,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,18 +637,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,128 +672,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1126,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1232,62 +1229,62 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1310,12 +1307,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1343,18 +1340,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>40170924</v>
@@ -1385,12 +1382,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1415,12 +1412,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/SmartRecruitData.xlsx
+++ b/src/main/resources/data/SmartRecruitData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Entityname</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Admin lead</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
   <si>
     <t>Full time FTE</t>
@@ -210,13 +213,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -239,83 +235,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,22 +347,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -360,187 +363,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +562,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,8 +614,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,8 +623,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,25 +654,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,128 +675,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,7 +1129,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1236,55 +1239,55 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1307,12 +1310,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1340,18 +1343,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>40170924</v>
@@ -1382,12 +1385,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1412,12 +1415,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/SmartRecruitData.xlsx
+++ b/src/main/resources/data/SmartRecruitData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aatish.s\Desktop\Tysspoc\HCL_SmartRecruit_POC\src\main\resources\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Requisition-TestData" sheetId="1" r:id="rId1"/>
@@ -119,9 +124,6 @@
     <t>1-3 Years</t>
   </si>
   <si>
-    <t>Senior Analyst</t>
-  </si>
-  <si>
     <t>Noida-Sec-16, A-11</t>
   </si>
   <si>
@@ -171,19 +173,16 @@
   </si>
   <si>
     <t>https://qa1.myhcl.com/SmartRecruit_CBT/</t>
+  </si>
+  <si>
+    <t>(ETS) SPECIALIST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,144 +210,8 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,194 +224,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -556,313 +233,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1120,38 +515,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
-    <col min="2" max="3" width="39.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="34.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="10" width="21.1428571428571" customWidth="1"/>
-    <col min="11" max="12" width="14.2857142857143" customWidth="1"/>
-    <col min="13" max="13" width="13.1428571428571" customWidth="1"/>
+    <col min="9" max="10" width="21.140625" customWidth="1"/>
+    <col min="11" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
     <col min="16" max="16" width="31" customWidth="1"/>
-    <col min="17" max="17" width="21.7142857142857" customWidth="1"/>
-    <col min="19" max="19" width="12.7142857142857" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
     <col min="20" max="20" width="37" customWidth="1"/>
-    <col min="21" max="21" width="35.7142857142857" customWidth="1"/>
-    <col min="22" max="22" width="14.1428571428571" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -1263,98 +658,94 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" customWidth="1"/>
-    <col min="4" max="4" width="11.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>40170924</v>
@@ -1365,69 +756,62 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://qa1.myhcl.com/SmartRecruit_CBT/" tooltip="https://qa1.myhcl.com/SmartRecruit_CBT/"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="https://qa1.myhcl.com/SmartRecruit_CBT/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>